--- a/传感器/连续物位测量/连杆浮球液位传感器/迈安德物料定义-01属性表-外购设备-连杆浮球液位传感器.xlsx
+++ b/传感器/连续物位测量/连杆浮球液位传感器/迈安德物料定义-01属性表-外购设备-连杆浮球液位传感器.xlsx
@@ -932,7 +932,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2291,44 +2291,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>mod attr</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>A305</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>PoleMaterial</t>
-        </is>
-      </c>
-      <c r="D33">
-        <f>"my"&amp;B33&amp;"_"&amp;C33</f>
-        <v/>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>add range</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" s="1">
-        <f>CONCATENATE(A33," ",D33," ",E33," ","="," ","'",G33,"'",";")</f>
-        <v/>
-      </c>
-      <c r="I33" s="2">
-        <f>CONCATENATE("emxFramework.Range.",D33,,".",G33," ="," ",F33)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34">
-      <c r="H34" s="1" t="n"/>
-      <c r="I34" s="2" t="n"/>
+      <c r="H33" s="1" t="n"/>
+      <c r="I33" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
